--- a/server/Bhaskar_Chandigarh.xlsx
+++ b/server/Bhaskar_Chandigarh.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27031"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Projects\SIH-2023\server\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A02706-ACB7-41A8-A22B-B83095122724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Heading</t>
   </si>
@@ -28,16 +22,43 @@
     <t>Body</t>
   </si>
   <si>
+    <t>Updated_Date</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
+    <t>Shuttle bus service starts in Chandigarh from today: Will run on weekends and public holidays, facility will be available for Rose Garden, Rock Garden and Sukhna Lake.</t>
+  </si>
+  <si>
+    <t>In view of the increasing number of tourists in Chandigarh on weekends and public holidays, shuttle bus service has been started today. This bus will be available daily for Rose Garden Rock Garden and Sukhna Lake. The shuttle bus will run every 5 minutes from 11:00 am to 8:00 pm. It will run in front of Rose Garden, behind Sector-9 Government Building, near Rock Garden and Sukhna Lake. Its fare will be ₹ 10.</t>
+  </si>
+  <si>
+    <t>33 minutes ago</t>
+  </si>
+  <si>
+    <t>https://www.bhaskar.com/local/chandigarh/news/shuttle-bus-service-starts-in-chandigarh-from-today-chandigarh-tourist-places-132159146.html</t>
+  </si>
+  <si>
+    <t>PU: Now interviews for guest faculty in UIET will be held on 22nd</t>
+  </si>
+  <si>
+    <t>The Department of Applied Mathematics of University Institute of Engineering and Technology, i.e. UIET, Panjab University, Chandigarh has organized a walk-in-interview for guest faculty to teach odd semesters to BE, ME students in the session 2023-24. This interview was held in UIET office on 16th November at 11:30 am. But, now it has been postponed and re-scheduled. Now this interview will be held on 22nd November at 11 am.</t>
+  </si>
+  <si>
+    <t>5 hours ago</t>
+  </si>
+  <si>
+    <t>https://www.bhaskar.com/local/chandigarh/news/pu-now-interviews-will-be-held-on-22nd-for-guest-faculty-in-uiet-132157886.html</t>
+  </si>
+  <si>
     <t>Partial curfew in Chandigarh on the day of World Cup final: Five or more people will not be able to gather, ban on bursting firecrackers and installing open screens.</t>
   </si>
   <si>
     <t>Some restrictions have been imposed in Chandigarh regarding the final match of the ICC World Cup-2023 between India and Australian cricket teams to be held on Sunday. Orders related to this were issued by the Chandigarh District Magistrate on Friday evening. Under this, a partial curfew has been announced in the city.</t>
   </si>
   <si>
-    <t>5 hours ago</t>
+    <t>12 hours ago</t>
   </si>
   <si>
     <t>https://www.bhaskar.com/local/chandigarh/news/restrictions-in-chandigarh-during-world-cup-final-match-chandigarh-world-cup-match-restriction-132155630.html</t>
@@ -49,18 +70,21 @@
     <t>A case has been registered against 7 people in the uproar over the headship of Gurdwara Sahib and the money kept in Golak in Mohali, adjacent to Chandigarh. Police have registered a case against the accused under sections 323, 355, 427, 480, 511, 506 and 149 of the IPC.</t>
   </si>
   <si>
-    <t>6 hours ago</t>
+    <t>13 hours ago</t>
   </si>
   <si>
     <t>https://www.bhaskar.com/local/chandigarh/news/religious-uproar-in-mohali-adjacent-to-chandigarh-mohali-gurudwara-sahib-dispute-132155121.html</t>
   </si>
   <si>
-    <t>Reinstatement orders of two Chandigarh Municipal Corporation employees cancelled: CBI had caught the outsourced employee taking Rs 1 lakh for re-hiring.</t>
+    <t>Reinstatement orders of two employees of Chandigarh Municipal Corporation cancelled: CBI had caught the outsourced employee taking Rs 1 lakh for re-hiring.</t>
   </si>
   <si>
     <t>Chandigarh Municipal Corporation has once again canceled the orders to reinstate two of its employees. These include Health Supervisor Sandeep Kumar and Chief Sanitary Inspector Chandra Mohan. In the order issued on Friday, both were once again suspended.</t>
   </si>
   <si>
+    <t>14 hours ago</t>
+  </si>
+  <si>
     <t>https://www.bhaskar.com/local/chandigarh/news/reinstatement-orders-of-two-employees-of-chandigarh-municipal-corporation-canceled-chandigarh-nagar-nigam-employees-corruption-132155484.html</t>
   </si>
   <si>
@@ -70,7 +94,7 @@
     <t>Congress MLA Sukhpal Singh Khaira appeared in Mohali district court today through video conferencing. A charge sheet was presented in the court against him and the other accused Gurdev Singh. The trial against both the accused has started from today. In 2021, the Enforcement Directorate (ED) registered a case against him under the Prevention of Money Laundering Act (PMLA) and arrested him. Now the next hearing in this case will be on December 8.</t>
   </si>
   <si>
-    <t>7 hours ago</t>
+    <t>15 hours ago</t>
   </si>
   <si>
     <t>https://www.bhaskar.com/local/chandigarh/news/sukhpal-khairas-appearance-in-mohali-court-today-mohali-court-132154486.html</t>
@@ -82,7 +106,7 @@
     <t>There is an uproar in the government schools of Chandigarh city regarding the admission of children from outside Chandigarh. According to a media report, the Chandigarh administration has now stopped the admission of children from outside in the government schools of Chandigarh. Mohali and Panchkula are protesting against not giving admission to children from outside. Punjab Congress State President Amarinder Singh Raja Vading has raised questions on this decision of the administration on social media.</t>
   </si>
   <si>
-    <t>10 hours ago</t>
+    <t>18 hours ago</t>
   </si>
   <si>
     <t>https://www.bhaskar.com/local/chandigarh/news/case-of-admission-of-children-from-outside-in-chandigarh-chandigarh-outsiders-admission-132154882.html</t>
@@ -94,146 +118,17 @@
     <t>A case of liquor bottle and chicken being found inside a PCR vehicle has come to light in Chandigarh. People have made a video of this and posted it on social media. However, the police say that people had forcefully kept the liquor bottle in the PCR vehicle. Medical test of PCR personnel has been done. If the test confirms alcohol, action will be taken against them.</t>
   </si>
   <si>
-    <t>16 hours ago</t>
+    <t>one day before</t>
   </si>
   <si>
     <t>https://www.bhaskar.com/local/chandigarh/news/liquor-in-pcr-vehicle-of-chandigarh-police-chandigarh-police-drink-132151501.html</t>
-  </si>
-  <si>
-    <t>Keep changing the pattern of life, this is life: Muni Shri</t>
-  </si>
-  <si>
-    <t>Chandigarh Unless our minds change, the pattern of our life will not change. No change is possible without changing things from within. The play does not change just by changing the narrator, the soul of the drama is not in the narrator but in the story. It is said that the audience has changed, we say that only its clothes have changed. His basic character is the same. We start calling change of clothes and convenience as easy change.</t>
-  </si>
-  <si>
-    <t>21 hours ago</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/keep-changing-the-pattern-of-life-this-is-life-muni-shri-132153573.html</t>
-  </si>
-  <si>
-    <t>FIR dismissed in caste remarks case</t>
-  </si>
-  <si>
-    <t>Bhaskar News The Punjab and Haryana High Court has ordered quashing of the FIR lodged against Aam Aadmi Party supremo Arvind Kejriwal and cameraman Mrityunjay Kumar, who was going to cover the program of Punjab CM Bhagwant Mann in Ludhiana, Chandigarh. Justice Anoop Chitkara said in the judgment that it is surprising that neither the allegations of caste remarks against the petitioner sitting inside the vehicle were proved nor was he involved in the accident.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/fir-dismissed-in-caste-remarks-case-132153687.html</t>
-  </si>
-  <si>
-    <t>ITBP will recruit 248 vacant posts of constable and general duty.</t>
-  </si>
-  <si>
-    <t>Chandigarh ITBP will recruit 248 vacant posts of Constable, General Duty. Applications have been invited from meritorious players for this campaign. Candidates can apply till 28th November at recruitment.itbpolic e.nic.in. To apply, the candidate must have passed 10th from a recognized board. Apart from this, better performance in any of the sports given in the notice under sports quota is necessary.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/itbp-will-recruit-248-vacant-posts-of-constable-and-general-duty-132153686.html</t>
-  </si>
-  <si>
-    <t>SGPC chief Dhami met the Governor for the release of 9 captive Singhs.</t>
-  </si>
-  <si>
-    <t>Chandigarh SGPC chief Harjinder Singh Dhami met Governor Banwari Lal Purohit on Thursday for the release of 9 captive Singhs who have completed their sentence. Dhami said that the matter of release of captive lions is very serious. 9 Bandi Singh has completed his sentence. Balwant Singh Rajoana has been imprisoned in an 8 feet gallows for 17 years.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/sgpc-chief-dhami-met-the-governor-for-the-release-of-9-captive-singhs-132153675.html</t>
-  </si>
-  <si>
-    <t>Huge vigil in Jayanti Devi temple today</t>
-  </si>
-  <si>
-    <t>Chandigarh A huge Bhagwati Jagran will be organized today in the ancient temple of Jayanti Mata in Jayanti Devi village adjacent to Chandigarh. Apart from Gulfam and Party, Punjabi singer Amrita Virk will drench the devotees with the gifts of Mata. Langar will be organized at 7:00 pm, in which people will receive prasad.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/huge-vigil-in-jayanti-devi-temple-today-132153594.html</t>
-  </si>
-  <si>
-    <t>Taking part in Deepdan Utsav is beneficial for health, prosperity and business.</t>
-  </si>
-  <si>
-    <t>City Reporter. Deepdan Utsav is going to start on 23rd November from Shukla Ekadashi of Kartik Paksha in Chandigarh Ancient Shiv Temple Sector-24. This festival will continue till 27th November. Dev Diwali will also be celebrated on this day, Monday. Besides, this day is also Sri Guru Nanak Dev Jayanti. In such a situation, there will be a 5-day festival in the temple premises.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/taking-part-in-deepdan-utsav-is-beneficial-for-health-prosperity-and-business-132153589.html</t>
-  </si>
-  <si>
-    <t>Blood donation camp for thalassemia patients today</t>
-  </si>
-  <si>
-    <t>Chandigarh. There will be a special blood donation camp for Thalassemia patients on Friday and body organ and eye donation pledge will also be taken. The camp will be organized by Satya Darshana Charitable Trust in Sector-22. On this occasion, Haryana Assembly Speaker Gyan Chand Gupta, senior RSS pracharak Prem ji Goyal, Punjab Haryana High Court Judge Rajesh Bhardwaj, Mayor Anoop Gupta, Bhajan Samrat Kanhaiya Mittal will be present as guests.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/blood-donation-camp-for-thalassemia-patients-today-132153586.html</t>
-  </si>
-  <si>
-    <t>Women and Child Welfare Society is making women self-reliant</t>
-  </si>
-  <si>
-    <t>City Reporter. Chandigarh Women and Child Welfare Society, under its social activities, is engaged in making economically weaker women self-reliant. In this series, an exhibition of clothes prepared by women was organized by the organization at Sanatan Dharma Mandir in Sector 45. The organization is running a sewing center for economically weaker women in Sector 45 itself.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/women-and-child-welfare-society-is-making-women-self-reliant-132153582.html</t>
-  </si>
-  <si>
-    <t>SSP celebrated Police Foundation Day in Old Age Home</t>
-  </si>
-  <si>
-    <t>Chandigarh During the Police Week, SSP UT Kanwardeep Kaur celebrated the second day by cutting a cake with the elderly at the Senior Citizen Sai Sanstha Old Age Home located in Sector-30. Where SP City Mridul and DSP East were present along with the SSP. It was also said that a workshop on Senior Citizen Welfare Act should be organized soon. After this, the entire team of Chandigarh officers along with the SSP went and met the students at the Blind School located in Sector-26.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/ssp-celebrated-police-foundation-day-in-old-age-home-132153580.html</t>
-  </si>
-  <si>
-    <t>2 thieves caught, car-bike and 4 laptops recovered</t>
-  </si>
-  <si>
-    <t>Crime Reporter Chandigarh</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/2-thieves-caught-car-bike-and-4-laptops-recovered-132153255.html</t>
-  </si>
-  <si>
-    <t>Two youths absconded after looting mobile-purse</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/two-youths-absconded-after-looting-mobile-purse-132153326.html</t>
-  </si>
-  <si>
-    <t>Railway booking counter closes after 2 o'clock, people upset</t>
-  </si>
-  <si>
-    <t>City Reporter Chandigarh</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/railway-booking-counter-closes-after-2-oclock-people-upset-132153321.html</t>
-  </si>
-  <si>
-    <t>Shooting: DAV-10 wins double title with clean sweep</t>
-  </si>
-  <si>
-    <t>Chandigarh DAV College-10 has achieved double title by making a clean sweep in PU Inter College Shooting. In the Girls Overall Championship, DAV College-10 topped with 59 points. He got 16 points in 50 meter rifle, while in 25 meter pistol he finished the game with 9 points.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/shooting-dav-10-wins-double-title-with-clean-sweep-132153289.html</t>
-  </si>
-  <si>
-    <t>Chandigarh match today, Paras will take command</t>
-  </si>
-  <si>
-    <t>Chandigarh The stage is set for the Cooch Behar Trophy for Under-19 Boys and City Boys will take on Tripura in the first match. Paras has been made the captain of the team and he will present a strong claim in the 4-day match to be played at Sector-16 Cricket Stadium. Tripura, Goa, Punjab, Vidarbha and Mumbai are in the same pool with Chandigarh in the tournament.</t>
-  </si>
-  <si>
-    <t>https://www.bhaskar.com/local/chandigarh/news/chandigarh-match-today-paras-will-take-command-132153284.html</t>
-  </si>
-  <si>
-    <t>Updated_Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,21 +178,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,7 +222,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -369,7 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -404,10 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,16 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,314 +480,134 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
